--- a/rideExcel/data/ResultsTestNGRegister.xlsx
+++ b/rideExcel/data/ResultsTestNGRegister.xlsx
@@ -65,7 +65,7 @@
     <t>1 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
   </si>
   <si>
-    <t>D:\DoanNhatTan_Ki7\Java\backend_java6\DATN_2023\src\main\webapp\assets\products\hung.png</t>
+    <t>C:\Users\ADMIN\Documents\GitHub\DATN_2023\src\main\webapp\assets\accounts\khoa.png</t>
   </si>
   <si>
     <t>Test Login</t>
@@ -80,10 +80,10 @@
     <t>FALIED</t>
   </si>
   <si>
-    <t xml:space="preserve">17:03:45 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702893836079.png</t>
+    <t xml:space="preserve">21:35:46 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910155960.png</t>
   </si>
   <si>
     <t>Hình Đầy Đủ</t>
@@ -98,10 +98,10 @@
     <t>2 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">17:03:59 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702893848336.png</t>
+    <t xml:space="preserve">21:35:58 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910167073.png</t>
   </si>
   <si>
     <t>3</t>
@@ -113,10 +113,10 @@
     <t>3 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">17:04:11 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702893860429.png</t>
+    <t xml:space="preserve">21:36:09 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910178046.png</t>
   </si>
   <si>
     <t>4</t>
@@ -128,10 +128,10 @@
     <t>SB Admin 2 - Register</t>
   </si>
   <si>
-    <t xml:space="preserve">17:04:23 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702893872071.png</t>
+    <t xml:space="preserve">21:36:20 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910188699.png</t>
   </si>
   <si>
     <t>5</t>
@@ -140,10 +140,10 @@
     <t>5 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">17:04:35 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702893883658.png</t>
+    <t xml:space="preserve">21:36:31 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910199379.png</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.21875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="33.0546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="91.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="86.75390625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.08203125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="6.69140625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="24.3046875" customWidth="true" bestFit="true"/>
